--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -222,270 +222,273 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="121">
+  <si>
+    <t>BCoordLang</t>
+  </si>
+  <si>
+    <t>BCOoL</t>
+  </si>
+  <si>
+    <t>Ptolemy</t>
+  </si>
+  <si>
+    <t>Wright (ADL)</t>
+  </si>
+  <si>
+    <t>MontiArc (ADL)</t>
+  </si>
+  <si>
+    <t>CommUnity (ADL)</t>
+  </si>
+  <si>
+    <t>Metropolis</t>
+  </si>
+  <si>
+    <t>MECSYCO</t>
+  </si>
+  <si>
+    <t>DACCOSIM</t>
+  </si>
+  <si>
+    <t>UMoC++</t>
+  </si>
+  <si>
+    <t>Lingua Franca</t>
+  </si>
+  <si>
+    <t>Reo</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>BIP (ADL or coordination framework?)</t>
+  </si>
+  <si>
+    <t>Manifold</t>
+  </si>
+  <si>
+    <t>ForSyDe</t>
+  </si>
+  <si>
+    <t>Coordination</t>
+  </si>
+  <si>
+    <t>Elements of coordination</t>
+  </si>
+  <si>
+    <t>Event-Scheduling</t>
+  </si>
+  <si>
+    <t>Event-Scheduling, Data-Exchange</t>
+  </si>
+  <si>
+    <t>Data-Exchange</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Data-Exchange ?</t>
+  </si>
+  <si>
+    <t>Data-Exchange, ?</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Dedicated elements</t>
+  </si>
+  <si>
+    <t>Query based</t>
+  </si>
+  <si>
+    <t>Architecture based</t>
+  </si>
+  <si>
+    <t>Architecture based ?</t>
+  </si>
+  <si>
+    <t>Name based</t>
+  </si>
+  <si>
+    <t>Architecture based?</t>
+  </si>
+  <si>
+    <t>Expressiveness</t>
+  </si>
+  <si>
+    <t>Predefined</t>
+  </si>
+  <si>
+    <t>Customizable</t>
+  </si>
+  <si>
+    <t>Predefined?</t>
+  </si>
+  <si>
+    <t>Model of Computation</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>Logical, Physical, Causal</t>
+  </si>
+  <si>
+    <t>Logical, Causal</t>
+  </si>
+  <si>
+    <t>Causal</t>
+  </si>
+  <si>
+    <t>Physical, Logical, Causal</t>
+  </si>
+  <si>
+    <t>Physical, Causal</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Formal verification</t>
+  </si>
+  <si>
+    <t>Custom properties</t>
+  </si>
+  <si>
+    <t>Predefined properties</t>
+  </si>
+  <si>
+    <t>Model checking?, Runtime monitoring</t>
+  </si>
+  <si>
+    <t>Model checking?</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Formal language</t>
+  </si>
+  <si>
+    <t>Programming language</t>
+  </si>
+  <si>
+    <t>Co-Simulation</t>
+  </si>
+  <si>
+    <t>Programing Language</t>
+  </si>
+  <si>
+    <t>Unified Execution</t>
+  </si>
+  <si>
+    <t>Component languages</t>
+  </si>
+  <si>
+    <t>Heterogeneous</t>
+  </si>
+  <si>
+    <t>Homogeneous</t>
+  </si>
+  <si>
+    <t>Heterogeneous? Unclear</t>
+  </si>
+  <si>
+    <t>Heterogeneous?</t>
+  </si>
+  <si>
+    <t>Coordination specification</t>
+  </si>
+  <si>
+    <t>Non-Intrusive</t>
+  </si>
+  <si>
+    <t>Intrusive</t>
+  </si>
+  <si>
+    <t>Intrusive?</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Discrete event</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Hybrid?</t>
+  </si>
+  <si>
+    <t>Work order</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>More potential approaches</t>
+  </si>
+  <si>
+    <t>Coordination framework/Co-simulation</t>
+  </si>
+  <si>
+    <t>Ptolemy + Modhelix</t>
+  </si>
+  <si>
+    <t>Fully classified</t>
+  </si>
+  <si>
+    <t>Coordination language</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Coordination framework</t>
+  </si>
+  <si>
+    <t>BCOOL</t>
+  </si>
+  <si>
+    <t>Mostly classified</t>
+  </si>
+  <si>
+    <t>ADL</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>ADLs are quite diverse? Other examples we should look at? MontiArc paper and overview paper</t>
+  </si>
   <si>
     <t>Tim</t>
-  </si>
-  <si>
-    <t>BCOoL</t>
-  </si>
-  <si>
-    <t>Ptolemy</t>
-  </si>
-  <si>
-    <t>Wright (ADL)</t>
-  </si>
-  <si>
-    <t>MontiArc (ADL)</t>
-  </si>
-  <si>
-    <t>CommUnity (ADL)</t>
-  </si>
-  <si>
-    <t>Metropolis</t>
-  </si>
-  <si>
-    <t>MECSYCO</t>
-  </si>
-  <si>
-    <t>DACCOSIM</t>
-  </si>
-  <si>
-    <t>UMoC++</t>
-  </si>
-  <si>
-    <t>Lingua Franca</t>
-  </si>
-  <si>
-    <t>Reo</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>BIP (ADL or coordination framework?)</t>
-  </si>
-  <si>
-    <t>Manifold</t>
-  </si>
-  <si>
-    <t>ForSyDe</t>
-  </si>
-  <si>
-    <t>Coordination</t>
-  </si>
-  <si>
-    <t>Elements of coordination</t>
-  </si>
-  <si>
-    <t>Event-Scheduling</t>
-  </si>
-  <si>
-    <t>Event-Scheduling, Data-Exchange</t>
-  </si>
-  <si>
-    <t>Data-Exchange</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Data-Exchange ?</t>
-  </si>
-  <si>
-    <t>Data-Exchange, ?</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Dedicated elements</t>
-  </si>
-  <si>
-    <t>Query based</t>
-  </si>
-  <si>
-    <t>Architecture based</t>
-  </si>
-  <si>
-    <t>Architecture based ?</t>
-  </si>
-  <si>
-    <t>Name based</t>
-  </si>
-  <si>
-    <t>Architecture based?</t>
-  </si>
-  <si>
-    <t>Expressiveness</t>
-  </si>
-  <si>
-    <t>Predefined</t>
-  </si>
-  <si>
-    <t>Customizable</t>
-  </si>
-  <si>
-    <t>Predefined?</t>
-  </si>
-  <si>
-    <t>Model of Computation</t>
-  </si>
-  <si>
-    <t>Logical</t>
-  </si>
-  <si>
-    <t>Logical, Physical, Causal</t>
-  </si>
-  <si>
-    <t>Logical, Causal</t>
-  </si>
-  <si>
-    <t>Causal</t>
-  </si>
-  <si>
-    <t>Physical, Logical, Causal</t>
-  </si>
-  <si>
-    <t>Physical, Causal</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Formal verification</t>
-  </si>
-  <si>
-    <t>Custom properties</t>
-  </si>
-  <si>
-    <t>Predefined properties</t>
-  </si>
-  <si>
-    <t>Model checking?, Runtime monitoring</t>
-  </si>
-  <si>
-    <t>Model checking?</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>Implementation</t>
-  </si>
-  <si>
-    <t>Formal language</t>
-  </si>
-  <si>
-    <t>Programming language</t>
-  </si>
-  <si>
-    <t>Co-Simulation</t>
-  </si>
-  <si>
-    <t>Programing Language</t>
-  </si>
-  <si>
-    <t>Unified Execution</t>
-  </si>
-  <si>
-    <t>Component languages</t>
-  </si>
-  <si>
-    <t>Heterogeneous</t>
-  </si>
-  <si>
-    <t>Homogeneous</t>
-  </si>
-  <si>
-    <t>Heterogeneous? Unclear</t>
-  </si>
-  <si>
-    <t>Heterogeneous?</t>
-  </si>
-  <si>
-    <t>Coordination specification</t>
-  </si>
-  <si>
-    <t>Non-Intrusive</t>
-  </si>
-  <si>
-    <t>Intrusive</t>
-  </si>
-  <si>
-    <t>Intrusive?</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Discrete event</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Hybrid?</t>
-  </si>
-  <si>
-    <t>Work order</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Approach</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>More potential approaches</t>
-  </si>
-  <si>
-    <t>Coordination framework/Co-simulation</t>
-  </si>
-  <si>
-    <t>Ptolemy + Modhelix</t>
-  </si>
-  <si>
-    <t>Fully classified</t>
-  </si>
-  <si>
-    <t>Coordination language</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>Coordination framework</t>
-  </si>
-  <si>
-    <t>BCOOL</t>
-  </si>
-  <si>
-    <t>Mostly classified</t>
-  </si>
-  <si>
-    <t>ADL</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>ADLs are quite diverse? Other examples we should look at? MontiArc paper and overview paper</t>
   </si>
   <si>
     <t>Not classified</t>
@@ -1816,10 +1819,10 @@
         <v>82</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -1831,10 +1834,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -1846,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1864,7 +1867,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -1874,7 +1877,7 @@
         <v>85</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F9" s="14"/>
     </row>
@@ -1884,7 +1887,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -1893,7 +1896,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -1902,19 +1905,19 @@
         <v>80</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -1928,10 +1931,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -1953,13 +1956,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1970,21 +1973,21 @@
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -1993,10 +1996,10 @@
         <v>85</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -2005,27 +2008,27 @@
         <v>85</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -2044,25 +2047,25 @@
         <v>85</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -392,7 +392,7 @@
     <t>Co-Simulation</t>
   </si>
   <si>
-    <t>Programing Language</t>
+    <t>Programming Language</t>
   </si>
   <si>
     <t>Unified Execution</t>
@@ -1010,7 +1010,7 @@
     <col customWidth="1" min="11" max="11" width="12.13"/>
     <col customWidth="1" min="12" max="12" width="12.75"/>
     <col customWidth="1" min="13" max="13" width="19.38"/>
-    <col customWidth="1" min="14" max="15" width="16.75"/>
+    <col customWidth="1" min="14" max="15" width="18.13"/>
     <col customWidth="1" min="16" max="16" width="31.13"/>
     <col customWidth="1" min="17" max="17" width="15.5"/>
     <col customWidth="1" min="18" max="18" width="13.63"/>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="119">
   <si>
     <t>BCoordLang</t>
   </si>
@@ -233,13 +233,13 @@
     <t>Ptolemy</t>
   </si>
   <si>
-    <t>Wright (ADL)</t>
-  </si>
-  <si>
-    <t>MontiArc (ADL)</t>
-  </si>
-  <si>
-    <t>CommUnity (ADL)</t>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>MontiArc</t>
+  </si>
+  <si>
+    <t>CommUnity</t>
   </si>
   <si>
     <t>Metropolis</t>
@@ -263,7 +263,7 @@
     <t>Linda</t>
   </si>
   <si>
-    <t>BIP (ADL or coordination framework?)</t>
+    <t>BIP</t>
   </si>
   <si>
     <t>Manifold</t>
@@ -503,15 +503,6 @@
     <t>Linguage Franca</t>
   </si>
   <si>
-    <t>MontiArc</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>CommUnity</t>
-  </si>
-  <si>
     <t>REO</t>
   </si>
   <si>
@@ -555,6 +546,9 @@
   </si>
   <si>
     <t>Together with FMI</t>
+  </si>
+  <si>
+    <t>ADL or coordination framework?</t>
   </si>
   <si>
     <t>BIP?</t>
@@ -1003,15 +997,14 @@
     <col customWidth="1" min="3" max="3" width="15.38"/>
     <col customWidth="1" min="4" max="4" width="13.5"/>
     <col customWidth="1" min="5" max="5" width="25.63"/>
-    <col customWidth="1" min="6" max="6" width="18.63"/>
+    <col customWidth="1" min="6" max="6" width="16.25"/>
     <col customWidth="1" min="7" max="8" width="17.63"/>
     <col customWidth="1" min="9" max="9" width="28.25"/>
     <col customWidth="1" min="10" max="10" width="13.25"/>
     <col customWidth="1" min="11" max="11" width="12.13"/>
     <col customWidth="1" min="12" max="12" width="12.75"/>
     <col customWidth="1" min="13" max="13" width="19.38"/>
-    <col customWidth="1" min="14" max="15" width="18.13"/>
-    <col customWidth="1" min="16" max="16" width="31.13"/>
+    <col customWidth="1" min="14" max="16" width="18.13"/>
     <col customWidth="1" min="17" max="17" width="15.5"/>
     <col customWidth="1" min="18" max="18" width="13.63"/>
     <col customWidth="1" min="19" max="19" width="31.25"/>
@@ -1877,7 +1870,7 @@
         <v>85</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="F9" s="14"/>
     </row>
@@ -1887,7 +1880,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1896,7 +1889,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1905,19 +1898,19 @@
         <v>80</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1931,10 +1924,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1956,13 +1949,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -1973,21 +1966,21 @@
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -1996,22 +1989,22 @@
         <v>85</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -2020,7 +2013,7 @@
         <v>91</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2021,7 @@
         <v>91</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -2039,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -2047,25 +2040,25 @@
         <v>85</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="118">
   <si>
     <t>BCoordLang</t>
   </si>
@@ -356,9 +356,6 @@
     <t>Execution</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Simulation</t>
   </si>
   <si>
@@ -449,7 +446,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Legend</t>
+    <t>Color code</t>
   </si>
   <si>
     <t>More potential approaches</t>
@@ -485,7 +482,7 @@
     <t>Darwin</t>
   </si>
   <si>
-    <t>ADLs are quite diverse? Other examples we should look at? MontiArc paper and overview paper</t>
+    <t>OG ADL like Wright</t>
   </si>
   <si>
     <t>Tim</t>
@@ -1319,21 +1316,15 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5" t="s">
         <v>43</v>
       </c>
@@ -1347,90 +1338,80 @@
     </row>
     <row r="9">
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5" t="s">
@@ -1439,7 +1420,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1454,214 +1435,214 @@
     </row>
     <row r="12">
       <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="P12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="O13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="K14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1749,106 +1730,109 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>81</v>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>12</v>
@@ -1857,17 +1841,17 @@
     <row r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>4</v>
@@ -1877,7 +1861,7 @@
     <row r="10">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>3</v>
@@ -1886,7 +1870,7 @@
     <row r="11">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>5</v>
@@ -1895,22 +1879,22 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1918,16 +1902,16 @@
         <v>1.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1949,13 +1933,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -1966,99 +1950,99 @@
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -183,6 +183,11 @@
         <t xml:space="preserve">Must be wrappable by DEVS</t>
       </text>
     </comment>
+    <comment authorId="0" ref="K13">
+      <text>
+        <t xml:space="preserve">Homogeneous since everything has to be FMU</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="L13">
       <text>
         <t xml:space="preserve">Currently only mealy as process implemented</t>
@@ -215,6 +220,12 @@
       <text>
         <t xml:space="preserve">Automata or Petri-Nets with in/out ports (on the outside).
 Different programming languages can be used for computation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K1">
+      <text>
+        <t xml:space="preserve">Triple check since it is in the paper
+	-Tim Kräuter</t>
       </text>
     </comment>
   </commentList>
@@ -308,10 +319,10 @@
     <t>Architecture based</t>
   </si>
   <si>
+    <t>Name based</t>
+  </si>
+  <si>
     <t>Architecture based ?</t>
-  </si>
-  <si>
-    <t>Name based</t>
   </si>
   <si>
     <t>Architecture based?</t>
@@ -1161,7 +1172,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>21</v>
@@ -1170,10 +1181,10 @@
         <v>27</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>30</v>
@@ -1214,7 +1225,7 @@
         <v>34</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>21</v>
@@ -1515,7 +1526,7 @@
         <v>58</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>61</v>
@@ -1621,7 +1632,7 @@
         <v>69</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>69</v>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -222,6 +222,12 @@
 Different programming languages can be used for computation</t>
       </text>
     </comment>
+    <comment authorId="0" ref="K6">
+      <text>
+        <t xml:space="preserve">Should be a-causal if they support FMI right?
+	-Tim Kräuter</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="K1">
       <text>
         <t xml:space="preserve">Triple check since it is in the paper
@@ -233,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
   <si>
     <t>BCoordLang</t>
   </si>
@@ -353,6 +359,9 @@
   </si>
   <si>
     <t>Causal</t>
+  </si>
+  <si>
+    <t>A-causal, Causal</t>
   </si>
   <si>
     <t>Physical, Logical, Causal</t>
@@ -1009,7 +1018,7 @@
     <col customWidth="1" min="7" max="8" width="17.63"/>
     <col customWidth="1" min="9" max="9" width="28.25"/>
     <col customWidth="1" min="10" max="10" width="13.25"/>
-    <col customWidth="1" min="11" max="11" width="12.13"/>
+    <col customWidth="1" min="11" max="11" width="13.38"/>
     <col customWidth="1" min="12" max="12" width="12.75"/>
     <col customWidth="1" min="13" max="13" width="19.38"/>
     <col customWidth="1" min="14" max="16" width="18.13"/>
@@ -1278,13 +1287,13 @@
         <v>39</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>38</v>
@@ -1299,12 +1308,12 @@
         <v>39</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1320,7 +1329,7 @@
     </row>
     <row r="8">
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1333,88 +1342,88 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1422,7 +1431,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5" t="s">
@@ -1431,7 +1440,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1446,214 +1455,214 @@
     </row>
     <row r="12">
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="L13" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="O14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="Q14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="R14" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="N15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -1741,40 +1750,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>21</v>
@@ -1783,67 +1792,67 @@
     <row r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>12</v>
@@ -1852,17 +1861,17 @@
     <row r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>4</v>
@@ -1872,7 +1881,7 @@
     <row r="10">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>3</v>
@@ -1881,7 +1890,7 @@
     <row r="11">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>5</v>
@@ -1890,22 +1899,22 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1913,16 +1922,16 @@
         <v>1.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1944,13 +1953,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -1961,99 +1970,99 @@
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -1,237 +1,573 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timkr\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909C231-18D7-484C-A091-4C21C6F43219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Classification" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Classification Progress" sheetId="2" r:id="rId5"/>
+    <sheet name="Classification" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C5">
-      <text>
-        <t xml:space="preserve">Synch is the only supported "semantic" atm.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D5">
-      <text>
-        <t xml:space="preserve">Besides, predefined semantics such as synchronization. Semantics can be customized using CCSL.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E5">
-      <text>
-        <t xml:space="preserve">The different MOC represent the predefined coordination semantics.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F5">
-      <text>
-        <t xml:space="preserve">CSP is used to define coordination.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N5">
-      <text>
-        <t xml:space="preserve">Set of basic connectors can be combined to new connectors.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G6">
-      <text>
-        <t xml:space="preserve">Physical time can be approximated using variables and guards on transitions (DIY)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H6">
-      <text>
-        <t xml:space="preserve">Synchronizing public actions and sharing data through input/outputvariables</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N6">
-      <text>
-        <t xml:space="preserve">Synchronous channels can be used for logical time.
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Triple check since it is in the paper
+	-Tim Kräuter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Synch is the only supported "semantic" atm.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Besides, predefined semantics such as synchronization. Semantics can be customized using CCSL.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The different MOC represent the predefined coordination semantics.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CSP is used to define coordination.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Set of basic connectors can be combined to new connectors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Physical time can be approximated using variables and guards on transitions (DIY)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Synchronizing public actions and sharing data through input/outputvariables</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Should be a-causal if they support FMI right?
+	-Tim Kräuter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Synchronous channels can be used for logical time.
 Asynchronous channels for usual data flow coordination.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P6">
-      <text>
-        <t xml:space="preserve">They have rendezvous, broadcast and causality as operators to connect ports.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="R6">
-      <text>
-        <t xml:space="preserve">Continuous-time MoC allows to model physical time.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P8">
-      <text>
-        <t xml:space="preserve">Generates unified or distributed C/C++ programs.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="R8">
-      <text>
-        <t xml:space="preserve">Hardware synthesis (deep-embedded version of ForSyDe)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F9">
-      <text>
-        <t xml:space="preserve">One can run the resulting CSP processes from the Wright specification (no current tool found).</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G9">
-      <text>
-        <t xml:space="preserve">They generate java code with a main class running the simulation.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N9">
-      <text>
-        <t xml:space="preserve">The REO compiler generates Java code.
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>They have rendezvous, broadcast and causality as operators to connect ports.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Continuous-time MoC allows to model physical time.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Generates unified or distributed C/C++ programs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Hardware synthesis (deep-embedded version of ForSyDe)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>One can run the resulting CSP processes from the Wright specification (no current tool found).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>They generate java code with a main class running the simulation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">The REO compiler generates Java code.
 https://github.com/ReoLanguage/Reo
 </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Q9">
-      <text>
-        <t xml:space="preserve">Java or C impl somewhere?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="R9">
-      <text>
-        <t xml:space="preserve">Shallow embedded DSL in Haskell.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F10">
-      <text>
-        <t xml:space="preserve">A specific set of properties such as deadlocks in the specifcation can be checked.
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Java or C impl somewhere?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Shallow embedded DSL in Haskell.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>A specific set of properties such as deadlocks in the specifcation can be checked.
 It is not possible/described if custom properties applicable to a domain are checked.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I10">
-      <text>
-        <t xml:space="preserve">A lot of claims but not sure if it really works :D</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C12">
-      <text>
-        <t xml:space="preserve">Rewriting</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D12">
-      <text>
-        <t xml:space="preserve">CCSL</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E12">
-      <text>
-        <t xml:space="preserve">Java</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F12">
-      <text>
-        <t xml:space="preserve">CSP</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G12">
-      <text>
-        <t xml:space="preserve">Java</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H12">
-      <text>
-        <t xml:space="preserve">Rooted in category theory but implemented in Java in the CommUnity workbench.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I12">
-      <text>
-        <t xml:space="preserve">SystemC and C++</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M12">
-      <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N12">
-      <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="O12">
-      <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P12">
-      <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G13">
-      <text>
-        <t xml:space="preserve">They currently support automata.
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>A lot of claims but not sure if it really works :D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Rewriting</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CCSL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Java</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CSP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Java</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Rooted in category theory but implemented in Java in the CommUnity workbench.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SystemC and C++</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are different implementations of Linda in different programming languages.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are different implementations of Linda in different programming languages.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are different implementations of Linda in different programming languages.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are different implementations of Linda in different programming languages.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>They currently support automata.
 Other models lead to an extension in the code generation process.
 Doable but probably harder to do than my approach</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J13">
-      <text>
-        <t xml:space="preserve">Must be wrappable by DEVS</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K13">
-      <text>
-        <t xml:space="preserve">Homogeneous since everything has to be FMU</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L13">
-      <text>
-        <t xml:space="preserve">Currently only mealy as process implemented</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M13">
-      <text>
-        <t xml:space="preserve">All lingua francra reactors currently have to be described in one of the provided languages.
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Must be wrappable by DEVS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Homogeneous since everything has to be FMU</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Currently only mealy as process implemented</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>All lingua francra reactors currently have to be described in one of the provided languages.
 Mixing reactors using different languages is currently not possible.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N13">
-      <text>
-        <t xml:space="preserve">Reo has its own syntax for connectors?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="O13">
-      <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming langues.
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Reo has its own syntax for connectors?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are different implementations of Linda in different programming langues.
 However, they are generally not compatible with each other.
 Thus only C-Linda can communicate with C-Linda not with Java Linda.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P13">
-      <text>
-        <t xml:space="preserve">Automata or Petri-Nets with in/out ports (on the outside).</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Q13">
-      <text>
-        <t xml:space="preserve">Automata or Petri-Nets with in/out ports (on the outside).
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Automata or Petri-Nets with in/out ports (on the outside).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Automata or Petri-Nets with in/out ports (on the outside).
 Different programming languages can be used for computation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K6">
-      <text>
-        <t xml:space="preserve">Should be a-causal if they support FMI right?
-	-Tim Kräuter</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K1">
-      <text>
-        <t xml:space="preserve">Triple check since it is in the paper
-	-Tim Kräuter</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -239,9 +575,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
-  <si>
-    <t>BCoordLang</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="71">
+  <si>
+    <t>BCoorLang</t>
   </si>
   <si>
     <t>BCOoL</t>
@@ -452,325 +788,101 @@
   </si>
   <si>
     <t>Hybrid?</t>
-  </si>
-  <si>
-    <t>Work order</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Approach</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Color code</t>
-  </si>
-  <si>
-    <t>More potential approaches</t>
-  </si>
-  <si>
-    <t>Coordination framework/Co-simulation</t>
-  </si>
-  <si>
-    <t>Ptolemy + Modhelix</t>
-  </si>
-  <si>
-    <t>Fully classified</t>
-  </si>
-  <si>
-    <t>Coordination language</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>Coordination framework</t>
-  </si>
-  <si>
-    <t>BCOOL</t>
-  </si>
-  <si>
-    <t>Mostly classified</t>
-  </si>
-  <si>
-    <t>ADL</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>OG ADL like Wright</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Not classified</t>
-  </si>
-  <si>
-    <t>Recheck some parts</t>
-  </si>
-  <si>
-    <t>No coordination</t>
-  </si>
-  <si>
-    <t>Linguage Franca</t>
-  </si>
-  <si>
-    <t>REO</t>
-  </si>
-  <si>
-    <t>Recheck some parts and try to implement an example</t>
-  </si>
-  <si>
-    <t>Coordination language (REO's ancestor)</t>
-  </si>
-  <si>
-    <t>MANIFOLD</t>
-  </si>
-  <si>
-    <t>Similar to focus?</t>
-  </si>
-  <si>
-    <t>Processes communicate via signals (functions on streams with values)</t>
-  </si>
-  <si>
-    <t>Gama</t>
-  </si>
-  <si>
-    <t>Check:</t>
-  </si>
-  <si>
-    <t>https://gama-platform.org/wiki/MultiParadigmModeling</t>
-  </si>
-  <si>
-    <t>Symthesis</t>
-  </si>
-  <si>
-    <t>Julien will send a paper</t>
-  </si>
-  <si>
-    <t>Julien</t>
-  </si>
-  <si>
-    <t>CoSim20</t>
-  </si>
-  <si>
-    <t>SSP</t>
-  </si>
-  <si>
-    <t>Together with FMI</t>
-  </si>
-  <si>
-    <t>ADL or coordination framework?</t>
-  </si>
-  <si>
-    <t>BIP?</t>
-  </si>
-  <si>
-    <t>Unsure if we should include it</t>
-  </si>
-  <si>
-    <t>AtomPM</t>
-  </si>
-  <si>
-    <t>UMPLE</t>
-  </si>
-  <si>
-    <t>Classified but not sure if needed</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>ADL with predefined operators</t>
-  </si>
-  <si>
-    <t>For examples tools: Why are they included why not? Recent/Runnable</t>
-  </si>
-  <si>
-    <t>Categories should reappear in the feature model (hopefully sharing similar feature sets)</t>
-  </si>
-  <si>
-    <t>False-positives? Coordination language which has exactly the features of an ADL or something like this.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF38761D"/>
-        <bgColor rgb="FF38761D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -781,11 +893,17 @@
     <xdr:ext cx="3295650" cy="2466975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -802,12 +920,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -997,39 +1111,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.5"/>
-    <col customWidth="1" min="3" max="3" width="15.38"/>
-    <col customWidth="1" min="4" max="4" width="13.5"/>
-    <col customWidth="1" min="5" max="5" width="25.63"/>
-    <col customWidth="1" min="6" max="6" width="16.25"/>
-    <col customWidth="1" min="7" max="8" width="17.63"/>
-    <col customWidth="1" min="9" max="9" width="28.25"/>
-    <col customWidth="1" min="10" max="10" width="13.25"/>
-    <col customWidth="1" min="11" max="11" width="13.38"/>
-    <col customWidth="1" min="12" max="12" width="12.75"/>
-    <col customWidth="1" min="13" max="13" width="19.38"/>
-    <col customWidth="1" min="14" max="16" width="18.13"/>
-    <col customWidth="1" min="17" max="17" width="15.5"/>
-    <col customWidth="1" min="18" max="18" width="13.63"/>
-    <col customWidth="1" min="19" max="19" width="31.25"/>
-    <col customWidth="1" min="20" max="20" width="30.0"/>
-    <col customWidth="1" min="21" max="21" width="26.0"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="31.28515625" customWidth="1"/>
+    <col min="20" max="20" width="30" customWidth="1"/>
+    <col min="21" max="21" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1080,12 +1197,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1099,8 +1216,8 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:18">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1152,8 +1269,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:18">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1205,8 +1322,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:18">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1258,8 +1375,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:18">
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1311,24 +1428,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
-    <row r="8">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:18">
+      <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="5"/>
@@ -1356,8 +1473,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:18">
+      <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1405,8 +1522,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:18">
+      <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1419,7 +1536,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1438,23 +1555,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
-    <row r="12">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:18">
+      <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1506,8 +1623,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:18">
+      <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1559,8 +1676,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:18">
+      <c r="B14" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1612,8 +1729,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:18">
+      <c r="B15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1665,36 +1782,36 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="L21" s="6"/>
+    <row r="21" spans="6:18">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="P21" s="5"/>
+      <c r="R21" s="5"/>
     </row>
-    <row r="23">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+    <row r="23" spans="6:18">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
     </row>
-    <row r="43">
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+    <row r="43" spans="1:18">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -1707,370 +1824,25 @@
       <c r="P43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:18">
       <c r="A44" s="1"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="R44" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="15.25"/>
-    <col customWidth="1" min="2" max="2" width="30.38"/>
-    <col customWidth="1" min="3" max="3" width="21.88"/>
-    <col customWidth="1" min="4" max="4" width="22.13"/>
-    <col customWidth="1" min="5" max="5" width="15.75"/>
-    <col customWidth="1" min="8" max="8" width="18.25"/>
-    <col customWidth="1" min="10" max="10" width="20.63"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C14"/>
-    <hyperlink r:id="rId2" ref="E16"/>
-    <hyperlink r:id="rId3" ref="C21"/>
-  </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -22,6 +22,11 @@
         <t xml:space="preserve">Models, model agents, and coupling artifacts</t>
       </text>
     </comment>
+    <comment authorId="0" ref="K4">
+      <text>
+        <t xml:space="preserve">Connectors and links</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C5">
       <text>
         <t xml:space="preserve">Synch is the only supported "semantic" atm.</t>
@@ -341,10 +346,10 @@
     <t>Architecture based</t>
   </si>
   <si>
+    <t>Architecture based ?</t>
+  </si>
+  <si>
     <t>Name based</t>
-  </si>
-  <si>
-    <t>Architecture based ?</t>
   </si>
   <si>
     <t>Architecture based?</t>
@@ -1043,8 +1048,7 @@
     <col customWidth="1" min="6" max="6" width="16.25"/>
     <col customWidth="1" min="7" max="8" width="17.63"/>
     <col customWidth="1" min="9" max="9" width="28.25"/>
-    <col customWidth="1" min="10" max="10" width="14.63"/>
-    <col customWidth="1" min="11" max="11" width="13.38"/>
+    <col customWidth="1" min="10" max="11" width="14.63"/>
     <col customWidth="1" min="12" max="12" width="12.75"/>
     <col customWidth="1" min="13" max="13" width="19.38"/>
     <col customWidth="1" min="14" max="16" width="18.13"/>
@@ -1205,7 +1209,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>21</v>
@@ -1214,10 +1218,10 @@
         <v>27</v>
       </c>
       <c r="N4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>30</v>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Classification" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Classification Progress" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Feature model application" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Application progress" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,6 +17,16 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="Q3">
+      <text>
+        <t xml:space="preserve">Streams carry data but independent there is also an event mechanism (broadcast).</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I4">
+      <text>
+        <t xml:space="preserve">Ports with interfaces that are implemented by media</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="J4">
       <text>
         <t xml:space="preserve">Models, model agents, and coupling artifacts</t>
@@ -27,6 +37,17 @@
         <t xml:space="preserve">Connectors and links</t>
       </text>
     </comment>
+    <comment authorId="0" ref="L4">
+      <text>
+        <t xml:space="preserve">Processes with signals carrying events between them.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q4">
+      <text>
+        <t xml:space="preserve">Processes with ports that are connected by streams.
+Independent there is also an event mechanism (broadcast).</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C5">
       <text>
         <t xml:space="preserve">Synch is the only supported "semantic" atm.</t>
@@ -52,6 +73,11 @@
         <t xml:space="preserve">Co-limit merging public actions that should be synchronized.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="L5">
+      <text>
+        <t xml:space="preserve">Parallel, Sequential and Feedback Operators</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="N5">
       <text>
         <t xml:space="preserve">Set of basic connectors can be combined to new connectors.</t>
@@ -65,6 +91,12 @@
     <comment authorId="0" ref="H6">
       <text>
         <t xml:space="preserve">Synchronizing public actions and sharing data through input/outputvariables</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L6">
+      <text>
+        <t xml:space="preserve">Untimed Model of Computation (UMoC)
+Processes are state machines connected via signals that carry data but not time but preserve order of emission.</t>
       </text>
     </comment>
     <comment authorId="0" ref="N6">
@@ -101,6 +133,11 @@
     <comment authorId="0" ref="G9">
       <text>
         <t xml:space="preserve">They generate java code with a main class running the simulation.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I9">
+      <text>
+        <t xml:space="preserve">Simulation using C++, Java and SystemC</t>
       </text>
     </comment>
     <comment authorId="0" ref="N9">
@@ -128,7 +165,7 @@
     </comment>
     <comment authorId="0" ref="I10">
       <text>
-        <t xml:space="preserve">A lot of claims but not sure if it really works :D</t>
+        <t xml:space="preserve">Temporal and propositional logics can be used to describe constraints over quantities such as time or energy.</t>
       </text>
     </comment>
     <comment authorId="0" ref="C12">
@@ -163,7 +200,13 @@
     </comment>
     <comment authorId="0" ref="I12">
       <text>
-        <t xml:space="preserve">SystemC and C++</t>
+        <t xml:space="preserve">SystemC and C++ for SImulation,
+Generates promela for formal verification</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L12">
+      <text>
+        <t xml:space="preserve">Based on C++ templates</t>
       </text>
     </comment>
     <comment authorId="0" ref="M12">
@@ -193,6 +236,11 @@
 Doable but probably harder to do than my approach</t>
       </text>
     </comment>
+    <comment authorId="0" ref="I13">
+      <text>
+        <t xml:space="preserve">Things have to be written in the same language, which looks like pseudo code with processes and threads.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="J13">
       <text>
         <t xml:space="preserve">Uses DEVS wrappers or a DEVS FMI wrapper for continous models.</t>
@@ -205,7 +253,7 @@
     </comment>
     <comment authorId="0" ref="L13">
       <text>
-        <t xml:space="preserve">Currently only mealy as process implemented</t>
+        <t xml:space="preserve">Heterogeneous components have to be expressed using the predefined C++ templates</t>
       </text>
     </comment>
     <comment authorId="0" ref="M13">
@@ -237,21 +285,26 @@
 Different programming languages can be used for computation</t>
       </text>
     </comment>
+    <comment authorId="0" ref="I14">
+      <text>
+        <t xml:space="preserve">Threads in processes push data to ports similar to ADLs.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="J14">
       <text>
         <t xml:space="preserve">One can reconnect ports differently but components are still sending the same information.
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="H14">
-      <text>
-        <t xml:space="preserve">Is changing connectors considere intrusive or extrusive?
-	-Tim Kräuter</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F14">
-      <text>
-        <t xml:space="preserve">Is changing connectors considere intrusive or extrusive?
+    <comment authorId="0" ref="L14">
+      <text>
+        <t xml:space="preserve">Same level as ADLs such as MontiArc
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E6">
+      <text>
+        <t xml:space="preserve">Can it do a-causal?
 	-Tim Kräuter</t>
       </text>
     </comment>
@@ -260,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
   <si>
     <t>BCoorLang</t>
   </si>
@@ -310,7 +363,7 @@
     <t>ForSyDe</t>
   </si>
   <si>
-    <t>Coordination</t>
+    <t>Foundation</t>
   </si>
   <si>
     <t>Elements of coordination</t>
@@ -325,15 +378,15 @@
     <t>Data-Exchange</t>
   </si>
   <si>
+    <t>Data-Exchange ?</t>
+  </si>
+  <si>
+    <t>Data-Exchange, Event-Scheduling</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
-    <t>Data-Exchange ?</t>
-  </si>
-  <si>
-    <t>Data-Exchange, ?</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
@@ -409,9 +462,6 @@
     <t>Predefined properties</t>
   </si>
   <si>
-    <t>Model checking?, Runtime monitoring</t>
-  </si>
-  <si>
     <t>Properties</t>
   </si>
   <si>
@@ -442,12 +492,6 @@
     <t>Homogeneous</t>
   </si>
   <si>
-    <t>Heterogeneous? Unclear</t>
-  </si>
-  <si>
-    <t>Heterogeneous?</t>
-  </si>
-  <si>
     <t>Coordination specification</t>
   </si>
   <si>
@@ -469,7 +513,19 @@
     <t>Hybrid</t>
   </si>
   <si>
-    <t>Hybrid?</t>
+    <t>Coordination language</t>
+  </si>
+  <si>
+    <t>Coordination framework</t>
+  </si>
+  <si>
+    <t>Co-simulation tool</t>
+  </si>
+  <si>
+    <t>Architecture description language</t>
+  </si>
+  <si>
+    <t>Misc</t>
   </si>
   <si>
     <t>Work order</t>
@@ -499,15 +555,9 @@
     <t>Fully classified</t>
   </si>
   <si>
-    <t>Coordination language</t>
-  </si>
-  <si>
     <t>Gamma</t>
   </si>
   <si>
-    <t>Coordination framework</t>
-  </si>
-  <si>
     <t>BCOOL</t>
   </si>
   <si>
@@ -529,19 +579,37 @@
     <t>Not classified</t>
   </si>
   <si>
-    <t>Recheck some parts</t>
+    <t>Gama</t>
+  </si>
+  <si>
+    <t>https://gama-platform.org/wiki/MultiParadigmModeling</t>
   </si>
   <si>
     <t>No coordination</t>
   </si>
   <si>
+    <t>Symthesis</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>Together with FMI</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>ADL with predefined operators</t>
+  </si>
+  <si>
     <t>Linguage Franca</t>
   </si>
   <si>
     <t>REO</t>
   </si>
   <si>
-    <t>Recheck some parts and try to implement an example</t>
+    <t>Recheck</t>
   </si>
   <si>
     <t>Coordination language (REO's ancestor)</t>
@@ -556,19 +624,7 @@
     <t>Processes communicate via signals (functions on streams with values)</t>
   </si>
   <si>
-    <t>Gama</t>
-  </si>
-  <si>
-    <t>Check:</t>
-  </si>
-  <si>
-    <t>https://gama-platform.org/wiki/MultiParadigmModeling</t>
-  </si>
-  <si>
-    <t>Symthesis</t>
-  </si>
-  <si>
-    <t>Julien will send a paper</t>
+    <t>Environment</t>
   </si>
   <si>
     <t>Julien</t>
@@ -577,12 +633,6 @@
     <t>CoSim20</t>
   </si>
   <si>
-    <t>SSP</t>
-  </si>
-  <si>
-    <t>Together with FMI</t>
-  </si>
-  <si>
     <t>ADL or coordination framework?</t>
   </si>
   <si>
@@ -592,32 +642,20 @@
     <t>Unsure if we should include it</t>
   </si>
   <si>
-    <t>Classified but not sure if needed</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>ADL with predefined operators</t>
+    <t>Modeling framework</t>
   </si>
   <si>
     <t>AtomPM</t>
   </si>
   <si>
     <t>UMPLE</t>
-  </si>
-  <si>
-    <t>Categories should reappear in the feature model (hopefully sharing similar feature sets)</t>
-  </si>
-  <si>
-    <t>False-positives? Coordination language which has exactly the features of an ADL or something like this.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -644,6 +682,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -663,11 +708,11 @@
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
+      <sz val="12.0"/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
@@ -676,12 +721,36 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -691,8 +760,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
@@ -703,20 +772,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF38761D"/>
         <bgColor rgb="FF38761D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
   </fills>
@@ -726,70 +783,97 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -801,36 +885,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3295650" cy="2466975"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,18 +1096,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.5"/>
+    <col customWidth="1" min="1" max="1" width="25.13"/>
+    <col customWidth="1" min="2" max="2" width="21.75"/>
     <col customWidth="1" min="3" max="3" width="15.38"/>
     <col customWidth="1" min="4" max="4" width="19.5"/>
     <col customWidth="1" min="5" max="5" width="25.63"/>
     <col customWidth="1" min="6" max="6" width="16.25"/>
-    <col customWidth="1" min="7" max="8" width="17.63"/>
-    <col customWidth="1" min="9" max="9" width="28.25"/>
+    <col customWidth="1" min="7" max="9" width="17.63"/>
     <col customWidth="1" min="10" max="11" width="14.63"/>
-    <col customWidth="1" min="12" max="12" width="12.75"/>
+    <col customWidth="1" min="12" max="12" width="18.13"/>
     <col customWidth="1" min="13" max="13" width="19.38"/>
     <col customWidth="1" min="14" max="16" width="18.13"/>
-    <col customWidth="1" min="17" max="17" width="15.5"/>
+    <col customWidth="1" min="17" max="17" width="25.63"/>
     <col customWidth="1" min="18" max="18" width="13.63"/>
     <col customWidth="1" min="19" max="19" width="31.25"/>
     <col customWidth="1" min="20" max="20" width="30.0"/>
@@ -1070,40 +1125,40 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -1111,647 +1166,670 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="O3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="P3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="Q3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="K4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="L4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>21</v>
+      <c r="Q4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>21</v>
+      <c r="R5" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="O6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="P6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="9"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
     </row>
     <row r="8">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="5" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="5" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7" t="s">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7" t="s">
+      <c r="O9" s="10"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="15"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="9"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="F12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="H12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="K12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="L12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="N12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="O12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="R12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="7" t="s">
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R12" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="G13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="H13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="I13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="D14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="8" t="s">
+      <c r="F14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="E15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="G15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="H15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="I15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="J15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="N15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="5" t="s">
+      <c r="O15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="8" t="s">
+      <c r="P15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="5" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="7" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
     </row>
     <row r="43">
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="R43" s="5"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="R43" s="10"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="R44" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -1770,331 +1848,298 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.25"/>
-    <col customWidth="1" min="2" max="2" width="30.38"/>
-    <col customWidth="1" min="3" max="3" width="21.88"/>
-    <col customWidth="1" min="4" max="4" width="22.13"/>
+    <col customWidth="1" min="2" max="2" width="35.0"/>
+    <col customWidth="1" min="3" max="3" width="18.5"/>
+    <col customWidth="1" min="4" max="4" width="24.13"/>
     <col customWidth="1" min="5" max="5" width="15.75"/>
     <col customWidth="1" min="8" max="8" width="18.25"/>
     <col customWidth="1" min="10" max="10" width="20.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="E1" s="21" t="s">
         <v>75</v>
       </c>
+      <c r="H1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="H3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="8" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="H4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>88</v>
       </c>
+      <c r="J4" s="26" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="27" t="s">
         <v>90</v>
       </c>
+      <c r="H5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>89</v>
+      <c r="H6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="H7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="18"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>93</v>
+      <c r="A12" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>95</v>
+      <c r="A13" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>97</v>
+      <c r="D14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>100</v>
+      <c r="A16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="10">
         <v>4.0</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>102</v>
+      <c r="B17" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>104</v>
+      <c r="A18" s="11"/>
+      <c r="B18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>106</v>
+      <c r="B19" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="B20" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C14"/>
-    <hyperlink r:id="rId2" ref="E16"/>
-    <hyperlink r:id="rId3" ref="C23"/>
+    <hyperlink r:id="rId1" ref="J4"/>
+    <hyperlink r:id="rId2" ref="C14"/>
+    <hyperlink r:id="rId3" ref="C19"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -19,7 +19,8 @@
   <commentList>
     <comment authorId="0" ref="Q3">
       <text>
-        <t xml:space="preserve">Streams carry data but independent there is also an event mechanism (broadcast).</t>
+        <t xml:space="preserve">Streams carry data but are independent; there is also an event mechanism (broadcast).
+Data-exchange + broadcast + on-the-fly reconfigurable architechture</t>
       </text>
     </comment>
     <comment authorId="0" ref="I4">
@@ -40,6 +41,16 @@
     <comment authorId="0" ref="L4">
       <text>
         <t xml:space="preserve">Processes with signals carrying events between them.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N4">
+      <text>
+        <t xml:space="preserve">Components communicating through connectors (atomic connectors are channels)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P4">
+      <text>
+        <t xml:space="preserve">The Algebra of Connectors allows the description of coordination between components in terms of structured connectors involving communication ports.</t>
       </text>
     </comment>
     <comment authorId="0" ref="Q4">
@@ -83,6 +94,12 @@
         <t xml:space="preserve">Set of basic connectors can be combined to new connectors.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="P5">
+      <text>
+        <t xml:space="preserve">Rendezvous, Broadcast, Atomic Broadcast, Causality Chain
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="G6">
       <text>
         <t xml:space="preserve">Physical time can be approximated using variables and guards on transitions (DIY)</t>
@@ -110,11 +127,6 @@
         <t xml:space="preserve">They have rendezvous, broadcast and causality as operators to connect ports.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="R6">
-      <text>
-        <t xml:space="preserve">Continuous-time MoC allows to model physical time.</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="P8">
       <text>
         <t xml:space="preserve">Generates unified or distributed C/C++ programs.</t>
@@ -122,7 +134,7 @@
     </comment>
     <comment authorId="0" ref="R8">
       <text>
-        <t xml:space="preserve">Hardware synthesis (deep-embedded version of ForSyDe)</t>
+        <t xml:space="preserve">Implementation Mapping: The ForSyDe implementation model is mapped onto a pure hardware implementation.</t>
       </text>
     </comment>
     <comment authorId="0" ref="F9">
@@ -147,16 +159,6 @@
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="Q9">
-      <text>
-        <t xml:space="preserve">Java or C impl somewhere?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="R9">
-      <text>
-        <t xml:space="preserve">Shallow embedded DSL in Haskell.</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="F10">
       <text>
         <t xml:space="preserve">A specific set of properties such as deadlocks in the specifcation can be checked.
@@ -168,6 +170,11 @@
         <t xml:space="preserve">Temporal and propositional logics can be used to describe constraints over quantities such as time or energy.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="P10">
+      <text>
+        <t xml:space="preserve">Deadlock-freedom</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C12">
       <text>
         <t xml:space="preserve">Rewriting</t>
@@ -226,7 +233,19 @@
     </comment>
     <comment authorId="0" ref="P12">
       <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
+        <t xml:space="preserve">Algebra of connectors which generates code in C++</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q12">
+      <text>
+        <t xml:space="preserve">The first implementation uses c
+concurrent C++.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R12">
+      <text>
+        <t xml:space="preserve">Haskell (Lava)
+One could also choose formal language here.</t>
       </text>
     </comment>
     <comment authorId="0" ref="G13">
@@ -281,8 +300,12 @@
     </comment>
     <comment authorId="0" ref="Q13">
       <text>
-        <t xml:space="preserve">Automata or Petri-Nets with in/out ports (on the outside).
-Different programming languages can be used for computation</t>
+        <t xml:space="preserve">Manifold language</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R13">
+      <text>
+        <t xml:space="preserve">Haskell based hardware description language Lava</t>
       </text>
     </comment>
     <comment authorId="0" ref="I14">
@@ -300,6 +323,17 @@
       <text>
         <t xml:space="preserve">Same level as ADLs such as MontiArc
 </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q14">
+      <text>
+        <t xml:space="preserve">Could be discussed but components exchange data through ports so similar to ADLs.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N14">
+      <text>
+        <t xml:space="preserve">Discusssion exogeneous=non-intrusive?
+	-Tim Kräuter</t>
       </text>
     </comment>
     <comment authorId="0" ref="E6">
@@ -313,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
   <si>
     <t>BCoorLang</t>
   </si>
@@ -378,207 +412,183 @@
     <t>Data-Exchange</t>
   </si>
   <si>
-    <t>Data-Exchange ?</t>
-  </si>
-  <si>
     <t>Data-Exchange, Event-Scheduling</t>
   </si>
   <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Dedicated elements</t>
+  </si>
+  <si>
+    <t>Query based</t>
+  </si>
+  <si>
+    <t>Architecture based</t>
+  </si>
+  <si>
+    <t>Name based</t>
+  </si>
+  <si>
+    <t>Expressiveness</t>
+  </si>
+  <si>
+    <t>Predefined</t>
+  </si>
+  <si>
+    <t>Predefined, Customizable</t>
+  </si>
+  <si>
+    <t>Customizable</t>
+  </si>
+  <si>
+    <t>Model of Computation</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>Logical, Physical, Causal</t>
+  </si>
+  <si>
+    <t>Logical, Causal</t>
+  </si>
+  <si>
+    <t>Causal</t>
+  </si>
+  <si>
+    <t>Physical, Logical, Causal</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Formal verification</t>
+  </si>
+  <si>
+    <t>Custom properties</t>
+  </si>
+  <si>
+    <t>Predefined properties</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Formal language</t>
+  </si>
+  <si>
+    <t>Programming language</t>
+  </si>
+  <si>
+    <t>Co-Simulation</t>
+  </si>
+  <si>
+    <t>Component languages</t>
+  </si>
+  <si>
+    <t>Heterogeneous</t>
+  </si>
+  <si>
+    <t>Homogeneous</t>
+  </si>
+  <si>
+    <t>Coordination specification</t>
+  </si>
+  <si>
+    <t>Non-Intrusive</t>
+  </si>
+  <si>
+    <t>Intrusive</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Discrete event</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Coordination language</t>
+  </si>
+  <si>
+    <t>Coordination framework</t>
+  </si>
+  <si>
+    <t>Co-simulation tool</t>
+  </si>
+  <si>
+    <t>Architecture description language</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Work order</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Color code</t>
+  </si>
+  <si>
+    <t>More potential approaches</t>
+  </si>
+  <si>
+    <t>Coordination framework/Co-simulation</t>
+  </si>
+  <si>
+    <t>Ptolemy + Modhelix</t>
+  </si>
+  <si>
+    <t>Fully classified</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>BCOOL</t>
+  </si>
+  <si>
+    <t>Mostly classified</t>
+  </si>
+  <si>
+    <t>ADL</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>OG ADL like Wright</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Not classified</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Dedicated elements</t>
-  </si>
-  <si>
-    <t>Query based</t>
-  </si>
-  <si>
-    <t>Architecture based</t>
-  </si>
-  <si>
-    <t>Architecture based ?</t>
-  </si>
-  <si>
-    <t>Name based</t>
-  </si>
-  <si>
-    <t>Architecture based?</t>
-  </si>
-  <si>
-    <t>Expressiveness</t>
-  </si>
-  <si>
-    <t>Predefined</t>
-  </si>
-  <si>
-    <t>Predefined, Customizable</t>
-  </si>
-  <si>
-    <t>Customizable</t>
-  </si>
-  <si>
-    <t>Predefined?</t>
-  </si>
-  <si>
-    <t>Model of Computation</t>
-  </si>
-  <si>
-    <t>Logical</t>
-  </si>
-  <si>
-    <t>Logical, Physical, Causal</t>
-  </si>
-  <si>
-    <t>Logical, Causal</t>
-  </si>
-  <si>
-    <t>Causal</t>
-  </si>
-  <si>
-    <t>Physical, Logical, Causal</t>
-  </si>
-  <si>
-    <t>Physical, Causal</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Formal verification</t>
-  </si>
-  <si>
-    <t>Custom properties</t>
-  </si>
-  <si>
-    <t>Predefined properties</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>Implementation</t>
-  </si>
-  <si>
-    <t>Formal language</t>
-  </si>
-  <si>
-    <t>Programming language</t>
-  </si>
-  <si>
-    <t>Co-Simulation</t>
-  </si>
-  <si>
-    <t>Programming Language</t>
-  </si>
-  <si>
-    <t>Unified Execution</t>
-  </si>
-  <si>
-    <t>Component languages</t>
-  </si>
-  <si>
-    <t>Heterogeneous</t>
-  </si>
-  <si>
-    <t>Homogeneous</t>
-  </si>
-  <si>
-    <t>Coordination specification</t>
-  </si>
-  <si>
-    <t>Non-Intrusive</t>
-  </si>
-  <si>
-    <t>Intrusive</t>
-  </si>
-  <si>
-    <t>Intrusive?</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Discrete event</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Coordination language</t>
-  </si>
-  <si>
-    <t>Coordination framework</t>
-  </si>
-  <si>
-    <t>Co-simulation tool</t>
-  </si>
-  <si>
-    <t>Architecture description language</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Work order</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Approach</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Color code</t>
-  </si>
-  <si>
-    <t>More potential approaches</t>
-  </si>
-  <si>
-    <t>Coordination framework/Co-simulation</t>
-  </si>
-  <si>
-    <t>Ptolemy + Modhelix</t>
-  </si>
-  <si>
-    <t>Fully classified</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>BCOOL</t>
-  </si>
-  <si>
-    <t>Mostly classified</t>
-  </si>
-  <si>
-    <t>ADL</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>OG ADL like Wright</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Not classified</t>
-  </si>
-  <si>
     <t>Gama</t>
   </si>
   <si>
@@ -609,19 +619,16 @@
     <t>REO</t>
   </si>
   <si>
-    <t>Recheck</t>
-  </si>
-  <si>
-    <t>Coordination language (REO's ancestor)</t>
+    <t>They call it "coordination model"</t>
   </si>
   <si>
     <t>MANIFOLD</t>
   </si>
   <si>
-    <t>Similar to focus?</t>
-  </si>
-  <si>
-    <t>Processes communicate via signals (functions on streams with values)</t>
+    <t>(REO's ancestor)</t>
+  </si>
+  <si>
+    <t>Modeling framework</t>
   </si>
   <si>
     <t>Environment</t>
@@ -633,16 +640,13 @@
     <t>CoSim20</t>
   </si>
   <si>
-    <t>ADL or coordination framework?</t>
+    <t>Component framework</t>
   </si>
   <si>
     <t>BIP?</t>
   </si>
   <si>
     <t>Unsure if we should include it</t>
-  </si>
-  <si>
-    <t>Modeling framework</t>
   </si>
   <si>
     <t>AtomPM</t>
@@ -721,7 +725,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,8 +758,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -770,12 +774,6 @@
         <bgColor theme="5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF38761D"/>
-        <bgColor rgb="FF38761D"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -783,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -808,7 +806,7 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -820,11 +818,11 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,10 +862,7 @@
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1106,9 +1101,11 @@
     <col customWidth="1" min="10" max="11" width="14.63"/>
     <col customWidth="1" min="12" max="12" width="18.13"/>
     <col customWidth="1" min="13" max="13" width="19.38"/>
-    <col customWidth="1" min="14" max="16" width="18.13"/>
-    <col customWidth="1" min="17" max="17" width="25.63"/>
-    <col customWidth="1" min="18" max="18" width="13.63"/>
+    <col customWidth="1" min="14" max="14" width="25.63"/>
+    <col customWidth="1" min="15" max="15" width="18.13"/>
+    <col customWidth="1" min="16" max="16" width="25.63"/>
+    <col customWidth="1" min="17" max="17" width="18.13"/>
+    <col customWidth="1" min="18" max="18" width="25.63"/>
     <col customWidth="1" min="19" max="19" width="31.25"/>
     <col customWidth="1" min="20" max="20" width="30.0"/>
     <col customWidth="1" min="21" max="21" width="26.0"/>
@@ -1161,7 +1158,7 @@
       <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1177,10 +1174,10 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="N2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
@@ -1219,186 +1216,186 @@
       <c r="M3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
+      <c r="R3" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>23</v>
+      <c r="P4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>39</v>
+      <c r="N6" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1407,15 +1404,12 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="14"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1426,104 +1420,102 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="N8" s="14"/>
       <c r="O8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="P9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="12"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="P10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1534,240 +1526,237 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="15"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1783,7 +1772,7 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -1858,165 +1847,165 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="11"/>
       <c r="B2" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11"/>
       <c r="B3" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11"/>
       <c r="B4" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11"/>
       <c r="B5" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11"/>
       <c r="B6" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11"/>
       <c r="B7" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11"/>
       <c r="B8" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" s="10"/>
       <c r="B9" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="10"/>
       <c r="B10" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>3</v>
@@ -2025,61 +2014,49 @@
     <row r="11">
       <c r="A11" s="10"/>
       <c r="B11" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10">
-        <v>2.0</v>
-      </c>
+      <c r="A12" s="10"/>
       <c r="B12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>97</v>
+        <v>57</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10">
-        <v>1.0</v>
-      </c>
+      <c r="A13" s="10"/>
       <c r="B13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10">
-        <v>3.0</v>
-      </c>
+      <c r="A14" s="10"/>
       <c r="B14" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>15</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10"/>
       <c r="B15" s="22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>6</v>
@@ -2087,52 +2064,50 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10">
-        <v>4.0</v>
-      </c>
+      <c r="A17" s="10"/>
       <c r="B17" s="22" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11"/>
       <c r="B18" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>110</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="22" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -1,345 +1,841 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timkr\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9DCE49-1269-408B-B63A-CE1885FADCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feature model application" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Application progress" sheetId="2" r:id="rId5"/>
+    <sheet name="Feature model application" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="Q3">
-      <text>
-        <t xml:space="preserve">Streams carry data but are independent; there is also an event mechanism (broadcast).
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Streams carry data but are independent; there is also an event mechanism (broadcast).
 Data-exchange + broadcast + on-the-fly reconfigurable architechture</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I4">
-      <text>
-        <t xml:space="preserve">Ports with interfaces that are implemented by media</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J4">
-      <text>
-        <t xml:space="preserve">Models, model agents, and coupling artifacts</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K4">
-      <text>
-        <t xml:space="preserve">Connectors and links</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L4">
-      <text>
-        <t xml:space="preserve">Processes with signals carrying events between them.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N4">
-      <text>
-        <t xml:space="preserve">Components communicating through connectors (atomic connectors are channels)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P4">
-      <text>
-        <t xml:space="preserve">The Algebra of Connectors allows the description of coordination between components in terms of structured connectors involving communication ports.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Q4">
-      <text>
-        <t xml:space="preserve">Processes with ports that are connected by streams.
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Ports with interfaces that are implemented by media</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Models, model agents, and coupling artifacts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Connectors and links</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Processes with signals carrying events between them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Components communicating through connectors (atomic connectors are channels)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The Algebra of Connectors allows the description of coordination between components in terms of structured connectors involving communication ports.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Processes with ports that are connected by streams.
 Independent there is also an event mechanism (broadcast).</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C5">
-      <text>
-        <t xml:space="preserve">Synch is the only supported "semantic" atm.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D5">
-      <text>
-        <t xml:space="preserve">Besides, predefined semantics such as synchronization. Semantics can be customized using CCSL.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E5">
-      <text>
-        <t xml:space="preserve">The different MOC represent the predefined coordination semantics.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F5">
-      <text>
-        <t xml:space="preserve">CSP is used to define coordination.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H5">
-      <text>
-        <t xml:space="preserve">Co-limit merging public actions that should be synchronized.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L5">
-      <text>
-        <t xml:space="preserve">Parallel, Sequential and Feedback Operators</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N5">
-      <text>
-        <t xml:space="preserve">Set of basic connectors can be combined to new connectors.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P5">
-      <text>
-        <t xml:space="preserve">Rendezvous, Broadcast, Atomic Broadcast, Causality Chain
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Synch is the only supported "semantic" atm.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Besides, predefined semantics such as synchronization. Semantics can be customized using CCSL.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The different MOC represent the predefined coordination semantics.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CSP is used to define coordination.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Co-limit merging public actions that should be synchronized.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Parallel, Sequential and Feedback Operators</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Set of basic connectors can be combined to new connectors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Rendezvous, Broadcast, Atomic Broadcast, Causality Chain
 </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G6">
-      <text>
-        <t xml:space="preserve">Physical time can be approximated using variables and guards on transitions (DIY)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H6">
-      <text>
-        <t xml:space="preserve">Synchronizing public actions and sharing data through input/outputvariables</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L6">
-      <text>
-        <t xml:space="preserve">Untimed Model of Computation (UMoC)
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Can it do a-causal?
+	-Tim Kräuter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Physical time can be approximated using variables and guards on transitions (DIY)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Synchronizing public actions and sharing data through input/outputvariables</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Untimed Model of Computation (UMoC)
 Processes are state machines connected via signals that carry data but not time but preserve order of emission.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N6">
-      <text>
-        <t xml:space="preserve">Synchronous channels can be used for logical time.
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Synchronous channels can be used for logical time.
 Asynchronous channels for usual data flow coordination.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P6">
-      <text>
-        <t xml:space="preserve">They have rendezvous, broadcast and causality as operators to connect ports.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P8">
-      <text>
-        <t xml:space="preserve">Generates unified or distributed C/C++ programs.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="R8">
-      <text>
-        <t xml:space="preserve">Implementation Mapping: The ForSyDe implementation model is mapped onto a pure hardware implementation.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F9">
-      <text>
-        <t xml:space="preserve">One can run the resulting CSP processes from the Wright specification (no current tool found).</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G9">
-      <text>
-        <t xml:space="preserve">They generate java code with a main class running the simulation.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I9">
-      <text>
-        <t xml:space="preserve">Simulation using C++, Java and SystemC</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N9">
-      <text>
-        <t xml:space="preserve">The REO compiler generates Java code.
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>They have rendezvous, broadcast and causality as operators to connect ports.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Generates unified or distributed C/C++ programs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Implementation Mapping: The ForSyDe implementation model is mapped onto a pure hardware implementation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>One can run the resulting CSP processes from the Wright specification (no current tool found).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>They generate java code with a main class running the simulation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Simulation using C++, Java and SystemC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">The REO compiler generates Java code.
 https://github.com/ReoLanguage/Reo
 </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F10">
-      <text>
-        <t xml:space="preserve">A specific set of properties such as deadlocks in the specifcation can be checked.
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>A specific set of properties such as deadlocks in the specifcation can be checked.
 It is not possible/described if custom properties applicable to a domain are checked.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I10">
-      <text>
-        <t xml:space="preserve">Temporal and propositional logics can be used to describe constraints over quantities such as time or energy.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P10">
-      <text>
-        <t xml:space="preserve">Deadlock-freedom</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C12">
-      <text>
-        <t xml:space="preserve">Rewriting</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D12">
-      <text>
-        <t xml:space="preserve">CCSL</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E12">
-      <text>
-        <t xml:space="preserve">Java</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F12">
-      <text>
-        <t xml:space="preserve">CSP</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G12">
-      <text>
-        <t xml:space="preserve">Java</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H12">
-      <text>
-        <t xml:space="preserve">Rooted in category theory but implemented in Java in the CommUnity workbench.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I12">
-      <text>
-        <t xml:space="preserve">SystemC and C++ for SImulation,
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Temporal and propositional logics can be used to describe constraints over quantities such as time or energy.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Deadlock-freedom</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Rewriting</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CCSL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Java</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CSP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Java</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Rooted in category theory but implemented in Java in the CommUnity workbench.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SystemC and C++ for SImulation,
 Generates promela for formal verification</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L12">
-      <text>
-        <t xml:space="preserve">Based on C++ templates</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M12">
-      <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N12">
-      <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="O12">
-      <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P12">
-      <text>
-        <t xml:space="preserve">Algebra of connectors which generates code in C++</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Q12">
-      <text>
-        <t xml:space="preserve">The first implementation uses c
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Based on C++ templates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are different implementations of Linda in different programming languages.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are different implementations of Linda in different programming languages.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are different implementations of Linda in different programming languages.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Algebra of connectors which generates code in C++</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The first implementation uses c
 concurrent C++.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="R12">
-      <text>
-        <t xml:space="preserve">Haskell (Lava)
+        </r>
+      </text>
+    </comment>
+    <comment ref="R12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Haskell (Lava)
 One could also choose formal language here.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G13">
-      <text>
-        <t xml:space="preserve">They currently support automata.
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>They currently support automata.
 Other models lead to an extension in the code generation process.
 Doable but probably harder to do than my approach</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I13">
-      <text>
-        <t xml:space="preserve">Things have to be written in the same language, which looks like pseudo code with processes and threads.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J13">
-      <text>
-        <t xml:space="preserve">Uses DEVS wrappers or a DEVS FMI wrapper for continous models.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K13">
-      <text>
-        <t xml:space="preserve">Homogeneous since everything has to be FMI/FMU</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L13">
-      <text>
-        <t xml:space="preserve">Heterogeneous components have to be expressed using the predefined C++ templates</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M13">
-      <text>
-        <t xml:space="preserve">All lingua francra reactors currently have to be described in one of the provided languages.
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Things have to be written in the same language, which looks like pseudo code with processes and threads.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Uses DEVS wrappers or a DEVS FMI wrapper for continous models.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Homogeneous since everything has to be FMI/FMU</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Heterogeneous components have to be expressed using the predefined C++ templates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>All lingua francra reactors currently have to be described in one of the provided languages.
 Mixing reactors using different languages is currently not possible.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N13">
-      <text>
-        <t xml:space="preserve">Reo has its own syntax for connectors?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="O13">
-      <text>
-        <t xml:space="preserve">There are different implementations of Linda in different programming langues.
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Reo has its own syntax for connectors?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are different implementations of Linda in different programming langues.
 However, they are generally not compatible with each other.
 Thus only C-Linda can communicate with C-Linda not with Java Linda.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P13">
-      <text>
-        <t xml:space="preserve">Automata or Petri-Nets with in/out ports (on the outside).</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Q13">
-      <text>
-        <t xml:space="preserve">Manifold language</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="R13">
-      <text>
-        <t xml:space="preserve">Haskell based hardware description language Lava</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I14">
-      <text>
-        <t xml:space="preserve">Threads in processes push data to ports similar to ADLs.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J14">
-      <text>
-        <t xml:space="preserve">One can reconnect ports differently but components are still sending the same information.
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Automata or Petri-Nets with in/out ports (on the outside).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Manifold language</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Haskell based hardware description language Lava</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Threads in processes push data to ports similar to ADLs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">One can reconnect ports differently but components are still sending the same information.
 </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L14">
-      <text>
-        <t xml:space="preserve">Same level as ADLs such as MontiArc
+        </r>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Same level as ADLs such as MontiArc
 </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Q14">
-      <text>
-        <t xml:space="preserve">Could be discussed but components exchange data through ports so similar to ADLs.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N14">
-      <text>
-        <t xml:space="preserve">Discusssion exogeneous=non-intrusive?
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Discusssion exogeneous=non-intrusive?
 	-Tim Kräuter</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E6">
-      <text>
-        <t xml:space="preserve">Can it do a-causal?
-	-Tim Kräuter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Could be discussed but components exchange data through ports so similar to ADLs.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -347,7 +843,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
   <si>
     <t>BCoorLang</t>
   </si>
@@ -448,7 +944,7 @@
     <t>Logical</t>
   </si>
   <si>
-    <t>Logical, Physical, Causal</t>
+    <t>Logical, Physical, Causal, A-causal</t>
   </si>
   <si>
     <t>Logical, Causal</t>
@@ -533,204 +1029,59 @@
   </si>
   <si>
     <t>Misc</t>
-  </si>
-  <si>
-    <t>Work order</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Approach</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Color code</t>
-  </si>
-  <si>
-    <t>More potential approaches</t>
-  </si>
-  <si>
-    <t>Coordination framework/Co-simulation</t>
-  </si>
-  <si>
-    <t>Ptolemy + Modhelix</t>
-  </si>
-  <si>
-    <t>Fully classified</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>BCOOL</t>
-  </si>
-  <si>
-    <t>Mostly classified</t>
-  </si>
-  <si>
-    <t>ADL</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>OG ADL like Wright</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Not classified</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Gama</t>
-  </si>
-  <si>
-    <t>https://gama-platform.org/wiki/MultiParadigmModeling</t>
-  </si>
-  <si>
-    <t>No coordination</t>
-  </si>
-  <si>
-    <t>Symthesis</t>
-  </si>
-  <si>
-    <t>SSP</t>
-  </si>
-  <si>
-    <t>Together with FMI</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>ADL with predefined operators</t>
-  </si>
-  <si>
-    <t>Linguage Franca</t>
-  </si>
-  <si>
-    <t>REO</t>
-  </si>
-  <si>
-    <t>They call it "coordination model"</t>
-  </si>
-  <si>
-    <t>MANIFOLD</t>
-  </si>
-  <si>
-    <t>(REO's ancestor)</t>
-  </si>
-  <si>
-    <t>Modeling framework</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Julien</t>
-  </si>
-  <si>
-    <t>CoSim20</t>
-  </si>
-  <si>
-    <t>Component framework</t>
-  </si>
-  <si>
-    <t>BIP?</t>
-  </si>
-  <si>
-    <t>Unsure if we should include it</t>
-  </si>
-  <si>
-    <t>AtomPM</t>
-  </si>
-  <si>
-    <t>UMPLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -768,127 +1119,75 @@
         <bgColor theme="6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1078,40 +1377,43 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.13"/>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="15.38"/>
-    <col customWidth="1" min="4" max="4" width="19.5"/>
-    <col customWidth="1" min="5" max="5" width="25.63"/>
-    <col customWidth="1" min="6" max="6" width="16.25"/>
-    <col customWidth="1" min="7" max="9" width="17.63"/>
-    <col customWidth="1" min="10" max="11" width="14.63"/>
-    <col customWidth="1" min="12" max="12" width="18.13"/>
-    <col customWidth="1" min="13" max="13" width="19.38"/>
-    <col customWidth="1" min="14" max="14" width="25.63"/>
-    <col customWidth="1" min="15" max="15" width="18.13"/>
-    <col customWidth="1" min="16" max="16" width="25.63"/>
-    <col customWidth="1" min="17" max="17" width="18.13"/>
-    <col customWidth="1" min="18" max="18" width="25.63"/>
-    <col customWidth="1" min="19" max="19" width="31.25"/>
-    <col customWidth="1" min="20" max="20" width="30.0"/>
-    <col customWidth="1" min="21" max="21" width="26.0"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" customWidth="1"/>
+    <col min="19" max="19" width="31.28515625" customWidth="1"/>
+    <col min="20" max="20" width="30" customWidth="1"/>
+    <col min="21" max="21" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1162,12 +1464,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -1179,7 +1481,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,7 +1534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18">
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1285,7 +1587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1391,23 +1693,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1422,7 +1724,7 @@
       <c r="M8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="10" t="s">
         <v>38</v>
       </c>
@@ -1436,7 +1738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18">
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1785,7 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1511,23 +1813,23 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1564,7 +1866,7 @@
       <c r="M12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -1580,7 +1882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1611,13 +1913,13 @@
       <c r="K13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="12" t="s">
         <v>50</v>
       </c>
       <c r="O13" s="10" t="s">
@@ -1633,7 +1935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18">
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1670,7 +1972,7 @@
       <c r="M14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="O14" s="10" t="s">
@@ -1686,7 +1988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18">
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
@@ -1717,13 +2019,13 @@
       <c r="K15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="12" t="s">
         <v>55</v>
       </c>
       <c r="O15" s="10" t="s">
@@ -1739,59 +2041,59 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="11"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="s">
+      <c r="P21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23">
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+    <row r="23" spans="1:18">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -1804,318 +2106,24 @@
       <c r="P43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:18" ht="12.75">
       <c r="A44" s="1"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="R44" s="11"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="R44" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="15.25"/>
-    <col customWidth="1" min="2" max="2" width="35.0"/>
-    <col customWidth="1" min="3" max="3" width="18.5"/>
-    <col customWidth="1" min="4" max="4" width="24.13"/>
-    <col customWidth="1" min="5" max="5" width="15.75"/>
-    <col customWidth="1" min="8" max="8" width="18.25"/>
-    <col customWidth="1" min="10" max="10" width="20.63"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="J4"/>
-    <hyperlink r:id="rId2" ref="C14"/>
-    <hyperlink r:id="rId3" ref="C19"/>
-  </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -1,841 +1,349 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timkr\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9DCE49-1269-408B-B63A-CE1885FADCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Feature model application" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Feature model application" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Application progress" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Streams carry data but are independent; there is also an event mechanism (broadcast).
+    <comment authorId="0" ref="Q3">
+      <text>
+        <t xml:space="preserve">Streams carry data but are independent; there is also an event mechanism (broadcast).
 Data-exchange + broadcast + on-the-fly reconfigurable architechture</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Ports with interfaces that are implemented by media</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Models, model agents, and coupling artifacts</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Connectors and links</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Processes with signals carrying events between them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Components communicating through connectors (atomic connectors are channels)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The Algebra of Connectors allows the description of coordination between components in terms of structured connectors involving communication ports.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Processes with ports that are connected by streams.
+      </text>
+    </comment>
+    <comment authorId="0" ref="I4">
+      <text>
+        <t xml:space="preserve">Ports with interfaces that are implemented by media</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J4">
+      <text>
+        <t xml:space="preserve">Models, model agents, and coupling artifacts</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K4">
+      <text>
+        <t xml:space="preserve">Connectors and links</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L4">
+      <text>
+        <t xml:space="preserve">Processes with signals carrying events between them.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N4">
+      <text>
+        <t xml:space="preserve">Components communicating through connectors (atomic connectors are channels)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P4">
+      <text>
+        <t xml:space="preserve">The Algebra of Connectors allows the description of coordination between components in terms of structured connectors involving communication ports.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q4">
+      <text>
+        <t xml:space="preserve">Processes with ports that are connected by streams.
 Independent there is also an event mechanism (broadcast).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Synch is the only supported "semantic" atm.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Besides, predefined semantics such as synchronization. Semantics can be customized using CCSL.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The different MOC represent the predefined coordination semantics.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>CSP is used to define coordination.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Co-limit merging public actions that should be synchronized.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Parallel, Sequential and Feedback Operators</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Set of basic connectors can be combined to new connectors.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Rendezvous, Broadcast, Atomic Broadcast, Causality Chain
+      </text>
+    </comment>
+    <comment authorId="0" ref="C5">
+      <text>
+        <t xml:space="preserve">Synch is the only supported "semantic" atm.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D5">
+      <text>
+        <t xml:space="preserve">Besides, predefined semantics such as synchronization. Semantics can be customized using CCSL.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E5">
+      <text>
+        <t xml:space="preserve">The different MOC represent the predefined coordination semantics.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F5">
+      <text>
+        <t xml:space="preserve">CSP is used to define coordination.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H5">
+      <text>
+        <t xml:space="preserve">Co-limit merging public actions that should be synchronized.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L5">
+      <text>
+        <t xml:space="preserve">Parallel, Sequential and Feedback Operators</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N5">
+      <text>
+        <t xml:space="preserve">Set of basic connectors can be combined to new connectors.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P5">
+      <text>
+        <t xml:space="preserve">Rendezvous, Broadcast, Atomic Broadcast, Causality Chain
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Can it do a-causal?
-	-Tim Kräuter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Physical time can be approximated using variables and guards on transitions (DIY)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Synchronizing public actions and sharing data through input/outputvariables</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Untimed Model of Computation (UMoC)
+      </text>
+    </comment>
+    <comment authorId="0" ref="G6">
+      <text>
+        <t xml:space="preserve">Physical time can be approximated using variables and guards on transitions (DIY)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H6">
+      <text>
+        <t xml:space="preserve">Synchronizing public actions and sharing data through input/outputvariables</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L6">
+      <text>
+        <t xml:space="preserve">Untimed Model of Computation (UMoC)
 Processes are state machines connected via signals that carry data but not time but preserve order of emission.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Synchronous channels can be used for logical time.
+      </text>
+    </comment>
+    <comment authorId="0" ref="N6">
+      <text>
+        <t xml:space="preserve">Synchronous channels can be used for logical time.
 Asynchronous channels for usual data flow coordination.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>They have rendezvous, broadcast and causality as operators to connect ports.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Generates unified or distributed C/C++ programs.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Implementation Mapping: The ForSyDe implementation model is mapped onto a pure hardware implementation.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>One can run the resulting CSP processes from the Wright specification (no current tool found).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>They generate java code with a main class running the simulation.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Simulation using C++, Java and SystemC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">The REO compiler generates Java code.
+      </text>
+    </comment>
+    <comment authorId="0" ref="P6">
+      <text>
+        <t xml:space="preserve">They have rendezvous, broadcast and causality as operators to connect ports.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P8">
+      <text>
+        <t xml:space="preserve">Generates unified or distributed C/C++ programs.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R8">
+      <text>
+        <t xml:space="preserve">Implementation Mapping: The ForSyDe implementation model is mapped onto a pure hardware implementation.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F9">
+      <text>
+        <t xml:space="preserve">One can run the resulting CSP processes from the Wright specification (no current tool found).</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G9">
+      <text>
+        <t xml:space="preserve">They generate java code with a main class running the simulation.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I9">
+      <text>
+        <t xml:space="preserve">Simulation using C++, Java and SystemC</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N9">
+      <text>
+        <t xml:space="preserve">The REO compiler generates Java code.
 https://github.com/ReoLanguage/Reo
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>A specific set of properties such as deadlocks in the specifcation can be checked.
+      </text>
+    </comment>
+    <comment authorId="0" ref="F10">
+      <text>
+        <t xml:space="preserve">A specific set of properties such as deadlocks in the specifcation can be checked.
 It is not possible/described if custom properties applicable to a domain are checked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Temporal and propositional logics can be used to describe constraints over quantities such as time or energy.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Deadlock-freedom</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Rewriting</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>CCSL</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Java</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>CSP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Java</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Rooted in category theory but implemented in Java in the CommUnity workbench.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>SystemC and C++ for SImulation,
+      </text>
+    </comment>
+    <comment authorId="0" ref="I10">
+      <text>
+        <t xml:space="preserve">Temporal and propositional logics can be used to describe constraints over quantities such as time or energy.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P10">
+      <text>
+        <t xml:space="preserve">Deadlock-freedom</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C12">
+      <text>
+        <t xml:space="preserve">Rewriting</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D12">
+      <text>
+        <t xml:space="preserve">CCSL</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E12">
+      <text>
+        <t xml:space="preserve">Java</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F12">
+      <text>
+        <t xml:space="preserve">CSP</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G12">
+      <text>
+        <t xml:space="preserve">Java</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H12">
+      <text>
+        <t xml:space="preserve">Rooted in category theory but implemented in Java in the CommUnity workbench.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I12">
+      <text>
+        <t xml:space="preserve">SystemC and C++ for SImulation,
 Generates promela for formal verification</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Based on C++ templates</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>There are different implementations of Linda in different programming languages.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>There are different implementations of Linda in different programming languages.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>There are different implementations of Linda in different programming languages.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Algebra of connectors which generates code in C++</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The first implementation uses c
+      </text>
+    </comment>
+    <comment authorId="0" ref="L12">
+      <text>
+        <t xml:space="preserve">Based on C++ templates</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M12">
+      <text>
+        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N12">
+      <text>
+        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O12">
+      <text>
+        <t xml:space="preserve">There are different implementations of Linda in different programming languages.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P12">
+      <text>
+        <t xml:space="preserve">Algebra of connectors which generates code in C++</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q12">
+      <text>
+        <t xml:space="preserve">The first implementation uses c
 concurrent C++.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Haskell (Lava)
+      </text>
+    </comment>
+    <comment authorId="0" ref="R12">
+      <text>
+        <t xml:space="preserve">Haskell (Lava)
 One could also choose formal language here.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>They currently support automata.
+      </text>
+    </comment>
+    <comment authorId="0" ref="G13">
+      <text>
+        <t xml:space="preserve">They currently support automata.
 Other models lead to an extension in the code generation process.
 Doable but probably harder to do than my approach</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Things have to be written in the same language, which looks like pseudo code with processes and threads.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Uses DEVS wrappers or a DEVS FMI wrapper for continous models.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Homogeneous since everything has to be FMI/FMU</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Heterogeneous components have to be expressed using the predefined C++ templates</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>All lingua francra reactors currently have to be described in one of the provided languages.
+      </text>
+    </comment>
+    <comment authorId="0" ref="I13">
+      <text>
+        <t xml:space="preserve">Things have to be written in the same language, which looks like pseudo code with processes and threads.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J13">
+      <text>
+        <t xml:space="preserve">Uses DEVS wrappers or a DEVS FMI wrapper for continous models.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K13">
+      <text>
+        <t xml:space="preserve">Homogeneous since everything has to be FMI/FMU</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L13">
+      <text>
+        <t xml:space="preserve">Heterogeneous components have to be expressed using the predefined C++ templates</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M13">
+      <text>
+        <t xml:space="preserve">All lingua francra reactors currently have to be described in one of the provided languages.
 Mixing reactors using different languages is currently not possible.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Reo has its own syntax for connectors?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>There are different implementations of Linda in different programming langues.
+      </text>
+    </comment>
+    <comment authorId="0" ref="N13">
+      <text>
+        <t xml:space="preserve">Reo has its own syntax for connectors?</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O13">
+      <text>
+        <t xml:space="preserve">There are different implementations of Linda in different programming langues.
 However, they are generally not compatible with each other.
 Thus only C-Linda can communicate with C-Linda not with Java Linda.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Automata or Petri-Nets with in/out ports (on the outside).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Manifold language</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Haskell based hardware description language Lava</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Threads in processes push data to ports similar to ADLs.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">One can reconnect ports differently but components are still sending the same information.
+      </text>
+    </comment>
+    <comment authorId="0" ref="P13">
+      <text>
+        <t xml:space="preserve">Automata or Petri-Nets with in/out ports (on the outside).</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q13">
+      <text>
+        <t xml:space="preserve">Manifold language</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R13">
+      <text>
+        <t xml:space="preserve">Haskell based hardware description language Lava</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G14">
+      <text>
+        <t xml:space="preserve">Endogenous since ports contain coordination aspects like synch</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I14">
+      <text>
+        <t xml:space="preserve">Threads in processes push data to ports similar to ADLs.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J14">
+      <text>
+        <t xml:space="preserve">One can reconnect ports differently but components are still sending the same information.
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Same level as ADLs such as MontiArc
+      </text>
+    </comment>
+    <comment authorId="0" ref="L14">
+      <text>
+        <t xml:space="preserve">Same level as ADLs
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Discusssion exogeneous=non-intrusive?
+      </text>
+    </comment>
+    <comment authorId="0" ref="M14">
+      <text>
+        <t xml:space="preserve">Input/output inside components is logically simultaneous to output/input in other components.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q14">
+      <text>
+        <t xml:space="preserve">Components exchange data through ports similar to ADLs.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J6">
+      <text>
+        <t xml:space="preserve">Maybe can do a-causal
 	-Tim Kräuter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Could be discussed but components exchange data through ports so similar to ADLs.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -843,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="99">
   <si>
     <t>BCoorLang</t>
   </si>
@@ -944,7 +452,7 @@
     <t>Logical</t>
   </si>
   <si>
-    <t>Logical, Physical, Causal, A-causal</t>
+    <t>Logical, Physical, Causal</t>
   </si>
   <si>
     <t>Logical, Causal</t>
@@ -998,13 +506,13 @@
     <t>Homogeneous</t>
   </si>
   <si>
-    <t>Coordination specification</t>
-  </si>
-  <si>
-    <t>Non-Intrusive</t>
-  </si>
-  <si>
-    <t>Intrusive</t>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Exogeneous</t>
+  </si>
+  <si>
+    <t>Endogeneous</t>
   </si>
   <si>
     <t>Domain</t>
@@ -1029,59 +537,195 @@
   </si>
   <si>
     <t>Misc</t>
+  </si>
+  <si>
+    <t>Color code</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>More potential approaches</t>
+  </si>
+  <si>
+    <t>Fully classified</t>
+  </si>
+  <si>
+    <t>Coordination framework/Co-simulation</t>
+  </si>
+  <si>
+    <t>Ptolemy + Modhelix</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Mostly classified</t>
+  </si>
+  <si>
+    <t>BCOOL</t>
+  </si>
+  <si>
+    <t>ADL</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>OG ADL like Wright</t>
+  </si>
+  <si>
+    <t>Not classified</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Gama</t>
+  </si>
+  <si>
+    <t>https://gama-platform.org/wiki/MultiParadigmModeling</t>
+  </si>
+  <si>
+    <t>No coordination</t>
+  </si>
+  <si>
+    <t>Symthesis</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>Together with FMI</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>ADL with predefined operators</t>
+  </si>
+  <si>
+    <t>Linguage Franca</t>
+  </si>
+  <si>
+    <t>REO</t>
+  </si>
+  <si>
+    <t>coordination model</t>
+  </si>
+  <si>
+    <t>MANIFOLD</t>
+  </si>
+  <si>
+    <t>coordination model (REO's ancestor)</t>
+  </si>
+  <si>
+    <t>Modeling framework</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>CoSim20</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>Component framework</t>
+  </si>
+  <si>
+    <t>AtomPM</t>
+  </si>
+  <si>
+    <t>UMPLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="11">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1119,75 +763,127 @@
         <bgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="31">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1377,43 +1073,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" customWidth="1"/>
-    <col min="20" max="20" width="30" customWidth="1"/>
-    <col min="21" max="21" width="26" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="25.13"/>
+    <col customWidth="1" min="2" max="2" width="21.75"/>
+    <col customWidth="1" min="3" max="3" width="15.38"/>
+    <col customWidth="1" min="4" max="4" width="19.5"/>
+    <col customWidth="1" min="5" max="5" width="26.75"/>
+    <col customWidth="1" min="6" max="6" width="16.25"/>
+    <col customWidth="1" min="7" max="9" width="17.63"/>
+    <col customWidth="1" min="10" max="11" width="14.63"/>
+    <col customWidth="1" min="12" max="12" width="18.13"/>
+    <col customWidth="1" min="13" max="13" width="19.38"/>
+    <col customWidth="1" min="14" max="14" width="25.63"/>
+    <col customWidth="1" min="15" max="15" width="18.13"/>
+    <col customWidth="1" min="16" max="16" width="25.63"/>
+    <col customWidth="1" min="17" max="17" width="17.63"/>
+    <col customWidth="1" min="18" max="18" width="25.63"/>
+    <col customWidth="1" min="19" max="19" width="31.25"/>
+    <col customWidth="1" min="20" max="20" width="30.0"/>
+    <col customWidth="1" min="21" max="21" width="26.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1">
       <c r="A1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1464,12 +1157,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -1481,7 +1174,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1534,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4">
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1693,23 +1386,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8">
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1724,7 +1417,7 @@
       <c r="M8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="10" t="s">
         <v>38</v>
       </c>
@@ -1738,7 +1431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9">
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1785,7 +1478,7 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10">
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1813,23 +1506,23 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="I11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1866,7 +1559,7 @@
       <c r="M12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="14" t="s">
         <v>46</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -1882,7 +1575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13">
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1913,13 +1606,13 @@
       <c r="K13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="11" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="14" t="s">
         <v>50</v>
       </c>
       <c r="O13" s="10" t="s">
@@ -1935,7 +1628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14">
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1946,34 +1639,34 @@
         <v>52</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>53</v>
+      <c r="N14" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>53</v>
@@ -1982,13 +1675,13 @@
         <v>52</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15">
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2019,13 +1712,13 @@
       <c r="K15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="11" t="s">
         <v>55</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="14" t="s">
         <v>55</v>
       </c>
       <c r="O15" s="10" t="s">
@@ -2041,59 +1734,59 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="13" t="s">
+    <row r="18">
+      <c r="A18" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="14" t="s">
+    <row r="19">
+      <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="15" t="s">
+    <row r="20">
+      <c r="A20" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="16" t="s">
+    <row r="21">
+      <c r="A21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="17" t="s">
+      <c r="P21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+    <row r="23">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2106,24 +1799,308 @@
       <c r="P43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:18" ht="12.75">
+    <row r="44">
       <c r="A44" s="1"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="R44" s="10"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="R44" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.13"/>
+    <col customWidth="1" min="2" max="2" width="28.25"/>
+    <col customWidth="1" min="3" max="3" width="18.5"/>
+    <col customWidth="1" min="4" max="4" width="27.5"/>
+    <col customWidth="1" min="5" max="5" width="15.75"/>
+    <col customWidth="1" min="8" max="8" width="18.25"/>
+    <col customWidth="1" min="10" max="10" width="20.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11"/>
+      <c r="B6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10"/>
+      <c r="B11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10"/>
+      <c r="B13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10"/>
+      <c r="B14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10"/>
+      <c r="B17" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G4"/>
+    <hyperlink r:id="rId2" ref="C14"/>
+    <hyperlink r:id="rId3" ref="C19"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -509,10 +509,10 @@
     <t>Specification</t>
   </si>
   <si>
-    <t>Exogeneous</t>
-  </si>
-  <si>
-    <t>Endogeneous</t>
+    <t>Exogenous</t>
+  </si>
+  <si>
+    <t>Endogenous</t>
   </si>
   <si>
     <t>Domain</t>

--- a/artifacts/classification.xlsx
+++ b/artifacts/classification.xlsx
@@ -127,6 +127,11 @@
         <t xml:space="preserve">They have rendezvous, broadcast and causality as operators to connect ports.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="R6">
+      <text>
+        <t xml:space="preserve">Physical time is referred to in the continuous time MoC.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="P8">
       <text>
         <t xml:space="preserve">Generates unified or distributed C/C++ programs.</t>
@@ -211,6 +216,18 @@
 Generates promela for formal verification</t>
       </text>
     </comment>
+    <comment authorId="0" ref="J12">
+      <text>
+        <t xml:space="preserve">SystemC and C++ for SImulation,
+Generates promela for formal verification</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K12">
+      <text>
+        <t xml:space="preserve">SystemC and C++ for SImulation,
+Generates promela for formal verification</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="L12">
       <text>
         <t xml:space="preserve">Based on C++ templates</t>
@@ -338,6 +355,21 @@
     <comment authorId="0" ref="Q14">
       <text>
         <t xml:space="preserve">Components exchange data through ports similar to ADLs.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K17">
+      <text>
+        <t xml:space="preserve">One step further it is even distributed.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M17">
+      <text>
+        <t xml:space="preserve">They are working towards a distributed execution of the federation which is one step further like DACCOSIM.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P17">
+      <text>
+        <t xml:space="preserve">Driven by an engine that used the generated code.</t>
       </text>
     </comment>
     <comment authorId="0" ref="J6">
@@ -351,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="104">
   <si>
     <t>BCoorLang</t>
   </si>
@@ -491,112 +523,127 @@
     <t>Formal language</t>
   </si>
   <si>
-    <t>Programming language</t>
+    <t>General purpose language</t>
+  </si>
+  <si>
+    <t>Component languages</t>
+  </si>
+  <si>
+    <t>Heterogeneous</t>
+  </si>
+  <si>
+    <t>Homogeneous</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Exogenous</t>
+  </si>
+  <si>
+    <t>Endogenous</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Discrete event</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Component transparency</t>
+  </si>
+  <si>
+    <t>White-box</t>
+  </si>
+  <si>
+    <t>Black-box</t>
+  </si>
+  <si>
+    <t>Centralized</t>
+  </si>
+  <si>
+    <t>Federated</t>
+  </si>
+  <si>
+    <t>Coordination language</t>
+  </si>
+  <si>
+    <t>Coordination framework</t>
+  </si>
+  <si>
+    <t>Co-simulation approach</t>
+  </si>
+  <si>
+    <t>Architecture description language</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Color code</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>More potential approaches</t>
+  </si>
+  <si>
+    <t>Fully classified</t>
+  </si>
+  <si>
+    <t>Coordination framework/Co-simulation</t>
+  </si>
+  <si>
+    <t>Ptolemy + Modhelix</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Mostly classified</t>
+  </si>
+  <si>
+    <t>BCOOL</t>
+  </si>
+  <si>
+    <t>ADL</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>OG ADL like Wright</t>
+  </si>
+  <si>
+    <t>Not classified</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Gama</t>
+  </si>
+  <si>
+    <t>https://gama-platform.org/wiki/MultiParadigmModeling</t>
+  </si>
+  <si>
+    <t>No coordination</t>
   </si>
   <si>
     <t>Co-Simulation</t>
-  </si>
-  <si>
-    <t>Component languages</t>
-  </si>
-  <si>
-    <t>Heterogeneous</t>
-  </si>
-  <si>
-    <t>Homogeneous</t>
-  </si>
-  <si>
-    <t>Specification</t>
-  </si>
-  <si>
-    <t>Exogenous</t>
-  </si>
-  <si>
-    <t>Endogenous</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Discrete event</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Coordination language</t>
-  </si>
-  <si>
-    <t>Coordination framework</t>
-  </si>
-  <si>
-    <t>Co-simulation tool</t>
-  </si>
-  <si>
-    <t>Architecture description language</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Color code</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Approach</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>More potential approaches</t>
-  </si>
-  <si>
-    <t>Fully classified</t>
-  </si>
-  <si>
-    <t>Coordination framework/Co-simulation</t>
-  </si>
-  <si>
-    <t>Ptolemy + Modhelix</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>Mostly classified</t>
-  </si>
-  <si>
-    <t>BCOOL</t>
-  </si>
-  <si>
-    <t>ADL</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>OG ADL like Wright</t>
-  </si>
-  <si>
-    <t>Not classified</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Gama</t>
-  </si>
-  <si>
-    <t>https://gama-platform.org/wiki/MultiParadigmModeling</t>
-  </si>
-  <si>
-    <t>No coordination</t>
   </si>
   <si>
     <t>Symthesis</t>
@@ -1090,16 +1137,13 @@
     <col customWidth="1" min="2" max="2" width="21.75"/>
     <col customWidth="1" min="3" max="3" width="15.38"/>
     <col customWidth="1" min="4" max="4" width="19.5"/>
-    <col customWidth="1" min="5" max="5" width="26.75"/>
+    <col customWidth="1" min="5" max="5" width="25.63"/>
     <col customWidth="1" min="6" max="6" width="16.25"/>
-    <col customWidth="1" min="7" max="9" width="17.63"/>
-    <col customWidth="1" min="10" max="11" width="14.63"/>
-    <col customWidth="1" min="12" max="12" width="18.13"/>
-    <col customWidth="1" min="13" max="13" width="19.38"/>
+    <col customWidth="1" min="7" max="13" width="19.88"/>
     <col customWidth="1" min="14" max="14" width="25.63"/>
-    <col customWidth="1" min="15" max="15" width="18.13"/>
+    <col customWidth="1" min="15" max="15" width="19.88"/>
     <col customWidth="1" min="16" max="16" width="25.63"/>
-    <col customWidth="1" min="17" max="17" width="17.63"/>
+    <col customWidth="1" min="17" max="17" width="19.88"/>
     <col customWidth="1" min="18" max="18" width="25.63"/>
     <col customWidth="1" min="19" max="19" width="31.25"/>
     <col customWidth="1" min="20" max="20" width="30.0"/>
@@ -1383,7 +1427,7 @@
         <v>35</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1548,10 +1592,10 @@
         <v>46</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>46</v>
@@ -1577,181 +1621,279 @@
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="I13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="L13" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="H14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="N14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="P14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="F15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="K15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="16" t="s">
+      <c r="C16" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="D16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="K16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>59</v>
+      <c r="A20" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>60</v>
+      <c r="A21" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1766,11 +1908,14 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="s">
-        <v>61</v>
+      <c r="A22" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1783,6 +1928,11 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="43">
       <c r="D43" s="11"/>
@@ -1842,148 +1992,148 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11"/>
       <c r="B6" s="23" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11"/>
       <c r="B7" s="23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11"/>
       <c r="B8" s="23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" s="10"/>
       <c r="B9" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>4</v>
@@ -1993,7 +2143,7 @@
     <row r="10">
       <c r="A10" s="10"/>
       <c r="B10" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>3</v>
@@ -2002,7 +2152,7 @@
     <row r="11">
       <c r="A11" s="10"/>
       <c r="B11" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>5</v>
@@ -2011,31 +2161,31 @@
     <row r="12">
       <c r="A12" s="10"/>
       <c r="B12" s="23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10"/>
       <c r="B13" s="23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10"/>
       <c r="B14" s="23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>15</v>
@@ -2044,7 +2194,7 @@
     <row r="15">
       <c r="A15" s="10"/>
       <c r="B15" s="23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>6</v>
@@ -2052,19 +2202,19 @@
     </row>
     <row r="16">
       <c r="B16" s="23" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
       <c r="B17" s="23" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>13</v>
@@ -2073,7 +2223,7 @@
     <row r="18">
       <c r="A18" s="11"/>
       <c r="B18" s="23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>9</v>
@@ -2081,18 +2231,18 @@
     </row>
     <row r="19">
       <c r="B19" s="23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
